--- a/cw.xlsx
+++ b/cw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A46D65-038B-430F-8AFD-F6EC68B37700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF17CE-3696-470B-B534-090733C26ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,11 +1078,11 @@
         <v>57</v>
       </c>
       <c r="B2" s="32">
-        <f>0.6*D2+0.25*E2+0.15*F2</f>
+        <f t="shared" ref="B2:B20" si="0">0.6*D2+0.25*E2+0.15*F2</f>
         <v>9.9250000000000007</v>
       </c>
       <c r="C2" s="35">
-        <f>0.5*D2+0.45*E2+0.05*F2</f>
+        <f t="shared" ref="C2:C20" si="1">0.5*D2+0.45*E2+0.05*F2</f>
         <v>9.9749999999999996</v>
       </c>
       <c r="D2" s="3">
@@ -1099,29 +1099,29 @@
       </c>
       <c r="H2" s="50">
         <f>SUMIF(G:G, "b", B:B)</f>
-        <v>9.9250000000000007</v>
+        <v>24.430000000000003</v>
       </c>
       <c r="I2" s="51">
         <f>SUMIF(G:G, "b", D:D)/3</f>
-        <v>3.3333333333333335</v>
+        <v>8.2666666666666675</v>
       </c>
       <c r="J2" s="51">
         <f>SUMIF(G:G, "b", E:E)/3</f>
-        <v>3.3333333333333335</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="K2" s="52">
         <f>SUMIF(G:G, "b", F:F)/3</f>
-        <v>3.1666666666666665</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="M2" s="23">
-        <f>0.2*P2+0.8*Q2</f>
+        <f t="shared" ref="M2:M41" si="2">0.2*P2+0.8*Q2</f>
         <v>9.4</v>
       </c>
       <c r="N2" s="23">
-        <f>0.5*Q2+0.3*P2+0.2*O2</f>
+        <f t="shared" ref="N2:N41" si="3">0.5*Q2+0.3*P2+0.2*O2</f>
         <v>7.6999999999999993</v>
       </c>
       <c r="O2" s="24">
@@ -1139,11 +1139,11 @@
         <v>59</v>
       </c>
       <c r="B3" s="30">
-        <f>0.6*D3+0.25*E3+0.15*F3</f>
+        <f t="shared" si="0"/>
         <v>9.4599999999999991</v>
       </c>
       <c r="C3" s="33">
-        <f>0.5*D3+0.45*E3+0.05*F3</f>
+        <f t="shared" si="1"/>
         <v>9.48</v>
       </c>
       <c r="D3" s="4">
@@ -1160,29 +1160,29 @@
       </c>
       <c r="H3" s="47">
         <f>SUMIF(G:G, "r", B:B)</f>
-        <v>9.4599999999999991</v>
+        <v>15.645</v>
       </c>
       <c r="I3" s="53">
         <f>SUMIF(G:G, "r", D:D)/3</f>
-        <v>3.1999999999999997</v>
+        <v>5.3666666666666671</v>
       </c>
       <c r="J3" s="53">
         <f>SUMIF(G:G, "r", E:E)/3</f>
-        <v>3.1333333333333333</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="K3" s="40">
         <f>SUMIF(G:G, "r", F:F)/3</f>
-        <v>3</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="16">
-        <f>0.2*P3+0.8*Q3</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="N3" s="16">
-        <f>0.5*Q3+0.3*P3+0.2*O3</f>
+        <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="O3" s="17">
@@ -1200,11 +1200,11 @@
         <v>58</v>
       </c>
       <c r="B4" s="31">
-        <f>0.6*D4+0.25*E4+0.15*F4</f>
+        <f t="shared" si="0"/>
         <v>8.7550000000000008</v>
       </c>
       <c r="C4" s="34">
-        <f>0.5*D4+0.45*E4+0.05*F4</f>
+        <f t="shared" si="1"/>
         <v>8.6649999999999991</v>
       </c>
       <c r="D4" s="5">
@@ -1221,29 +1221,29 @@
       </c>
       <c r="H4" s="54">
         <f>SUMIF(G:G, "y", B:B)</f>
-        <v>8.7550000000000008</v>
+        <v>16.625</v>
       </c>
       <c r="I4" s="55">
         <f>SUMIF(G:G, "y", D:D)/3</f>
-        <v>3.1666666666666665</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="J4" s="55">
         <f>SUMIF(G:G, "y", E:E)/3</f>
-        <v>2.6333333333333333</v>
+        <v>5.3666666666666671</v>
       </c>
       <c r="K4" s="56">
         <f>SUMIF(G:G, "y", F:F)/3</f>
-        <v>2.4</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="16">
-        <f>0.2*P4+0.8*Q4</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="N4" s="16">
-        <f>0.5*Q4+0.3*P4+0.2*O4</f>
+        <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
       <c r="O4" s="17">
@@ -1261,11 +1261,11 @@
         <v>65</v>
       </c>
       <c r="B5" s="32">
-        <f>0.6*D5+0.25*E5+0.15*F5</f>
+        <f t="shared" si="0"/>
         <v>8.33</v>
       </c>
       <c r="C5" s="35">
-        <f>0.5*D5+0.45*E5+0.05*F5</f>
+        <f t="shared" si="1"/>
         <v>8.2099999999999991</v>
       </c>
       <c r="D5" s="3">
@@ -1282,29 +1282,29 @@
       </c>
       <c r="H5" s="57">
         <f>SUMIF(G:G, "g", B:B)</f>
-        <v>8.33</v>
+        <v>16.09</v>
       </c>
       <c r="I5" s="58">
         <f>SUMIF(G:G, "g", D:D)/3</f>
-        <v>2.9</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="J5" s="58">
         <f>SUMIF(G:G, "g", E:E)/3</f>
-        <v>2.5666666666666669</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="K5" s="42">
         <f>SUMIF(G:G, "g", F:F)/3</f>
-        <v>2.6333333333333333</v>
+        <v>5.0333333333333341</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="16">
-        <f>0.2*P5+0.8*Q5</f>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="N5" s="16">
-        <f>0.5*Q5+0.3*P5+0.2*O5</f>
+        <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
       <c r="O5" s="17">
@@ -1322,11 +1322,11 @@
         <v>61</v>
       </c>
       <c r="B6" s="30">
-        <f>0.6*D6+0.25*E6+0.15*F6</f>
+        <f t="shared" si="0"/>
         <v>8.0499999999999989</v>
       </c>
       <c r="C6" s="33">
-        <f>0.5*D6+0.45*E6+0.05*F6</f>
+        <f t="shared" si="1"/>
         <v>8.2099999999999991</v>
       </c>
       <c r="D6" s="4">
@@ -1361,11 +1361,11 @@
         <v>37</v>
       </c>
       <c r="M6" s="16">
-        <f>0.2*P6+0.8*Q6</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="N6" s="16">
-        <f>0.5*Q6+0.3*P6+0.2*O6</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O6" s="17">
@@ -1383,11 +1383,11 @@
         <v>63</v>
       </c>
       <c r="B7" s="31">
-        <f>0.6*D7+0.25*E7+0.15*F7</f>
+        <f t="shared" si="0"/>
         <v>7.9550000000000001</v>
       </c>
       <c r="C7" s="34">
-        <f>0.5*D7+0.45*E7+0.05*F7</f>
+        <f t="shared" si="1"/>
         <v>7.9249999999999998</v>
       </c>
       <c r="D7" s="5">
@@ -1400,7 +1400,7 @@
         <v>8.5</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
@@ -1410,11 +1410,11 @@
         <v>35</v>
       </c>
       <c r="M7" s="16">
-        <f>0.2*P7+0.8*Q7</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="N7" s="16">
-        <f>0.5*Q7+0.3*P7+0.2*O7</f>
+        <f t="shared" si="3"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="O7" s="17">
@@ -1427,26 +1427,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="33">
-        <f>0.6*D8+0.25*E8+0.15*F8</f>
-        <v>6.55</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="C8" s="33">
-        <f>0.5*D8+0.45*E8+0.05*F8</f>
-        <v>6.0100000000000007</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D8" s="44">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>54</v>
@@ -1456,11 +1456,11 @@
         <v>46</v>
       </c>
       <c r="M8" s="14">
-        <f>0.2*P8+0.8*Q8</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
       <c r="N8" s="14">
-        <f>0.5*Q8+0.3*P8+0.2*O8</f>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
       <c r="O8" s="19">
@@ -1473,16 +1473,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="33">
-        <f>0.6*D9+0.25*E9+0.15*F9</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="C9" s="33">
-        <f>0.5*D9+0.45*E9+0.05*F9</f>
+        <f t="shared" si="1"/>
         <v>5.37</v>
       </c>
       <c r="D9" s="44">
@@ -1502,11 +1502,11 @@
         <v>32</v>
       </c>
       <c r="M9" s="23">
-        <f>0.2*P9+0.8*Q9</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="N9" s="23">
-        <f>0.5*Q9+0.3*P9+0.2*O9</f>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="O9" s="24">
@@ -1519,16 +1519,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="33">
-        <f>0.6*D10+0.25*E10+0.15*F10</f>
+        <f t="shared" si="0"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="C10" s="33">
-        <f>0.5*D10+0.45*E10+0.05*F10</f>
+        <f t="shared" si="1"/>
         <v>4.6300000000000008</v>
       </c>
       <c r="D10" s="44">
@@ -1548,11 +1548,11 @@
         <v>10</v>
       </c>
       <c r="M10" s="16">
-        <f>0.2*P10+0.8*Q10</f>
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="N10" s="16">
-        <f>0.5*Q10+0.3*P10+0.2*O10</f>
+        <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O10" s="17">
@@ -1565,16 +1565,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="33">
-        <f>0.6*D11+0.25*E11+0.15*F11</f>
+        <f t="shared" si="0"/>
         <v>4.17</v>
       </c>
       <c r="C11" s="33">
-        <f>0.5*D11+0.45*E11+0.05*F11</f>
+        <f t="shared" si="1"/>
         <v>4.08</v>
       </c>
       <c r="D11" s="44">
@@ -1594,11 +1594,11 @@
         <v>16</v>
       </c>
       <c r="M11" s="16">
-        <f>0.2*P11+0.8*Q11</f>
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="N11" s="16">
-        <f>0.5*Q11+0.3*P11+0.2*O11</f>
+        <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O11" s="17">
@@ -1616,11 +1616,11 @@
         <v>60</v>
       </c>
       <c r="B12" s="35">
-        <f>0.6*D12+0.25*E12+0.15*F12</f>
+        <f t="shared" si="0"/>
         <v>7.87</v>
       </c>
       <c r="C12" s="35">
-        <f>0.5*D12+0.45*E12+0.05*F12</f>
+        <f t="shared" si="1"/>
         <v>7.94</v>
       </c>
       <c r="D12" s="43">
@@ -1633,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -1643,11 +1643,11 @@
         <v>39</v>
       </c>
       <c r="M12" s="16">
-        <f>0.2*P12+0.8*Q12</f>
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="N12" s="16">
-        <f>0.5*Q12+0.3*P12+0.2*O12</f>
+        <f t="shared" si="3"/>
         <v>7.9</v>
       </c>
       <c r="O12" s="17">
@@ -1665,11 +1665,11 @@
         <v>62</v>
       </c>
       <c r="B13" s="33">
-        <f>0.6*D13+0.25*E13+0.15*F13</f>
+        <f t="shared" si="0"/>
         <v>7.7600000000000007</v>
       </c>
       <c r="C13" s="33">
-        <f>0.5*D13+0.45*E13+0.05*F13</f>
+        <f t="shared" si="1"/>
         <v>7.5700000000000012</v>
       </c>
       <c r="D13" s="44">
@@ -1682,7 +1682,7 @@
         <v>7.2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1692,11 +1692,11 @@
         <v>34</v>
       </c>
       <c r="M13" s="16">
-        <f>0.2*P13+0.8*Q13</f>
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="N13" s="16">
-        <f>0.5*Q13+0.3*P13+0.2*O13</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="O13" s="17">
@@ -1714,11 +1714,11 @@
         <v>75</v>
       </c>
       <c r="B14" s="34">
-        <f>0.6*D14+0.25*E14+0.15*F14</f>
+        <f t="shared" si="0"/>
         <v>6.55</v>
       </c>
       <c r="C14" s="34">
-        <f>0.5*D14+0.45*E14+0.05*F14</f>
+        <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
       <c r="D14" s="45">
@@ -1731,7 +1731,7 @@
         <v>6.5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -1741,11 +1741,11 @@
         <v>21</v>
       </c>
       <c r="M14" s="16">
-        <f>0.2*P14+0.8*Q14</f>
+        <f t="shared" si="2"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="N14" s="16">
-        <f>0.5*Q14+0.3*P14+0.2*O14</f>
+        <f t="shared" si="3"/>
         <v>6.7</v>
       </c>
       <c r="O14" s="17">
@@ -1763,11 +1763,11 @@
         <v>70</v>
       </c>
       <c r="B15" s="35">
-        <f>0.6*D15+0.25*E15+0.15*F15</f>
+        <f t="shared" si="0"/>
         <v>6.2449999999999992</v>
       </c>
       <c r="C15" s="35">
-        <f>0.5*D15+0.45*E15+0.05*F15</f>
+        <f t="shared" si="1"/>
         <v>6.2150000000000007</v>
       </c>
       <c r="D15" s="43">
@@ -1790,11 +1790,11 @@
         <v>28</v>
       </c>
       <c r="M15" s="16">
-        <f>0.2*P15+0.8*Q15</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="N15" s="16">
-        <f>0.5*Q15+0.3*P15+0.2*O15</f>
+        <f t="shared" si="3"/>
         <v>7.6</v>
       </c>
       <c r="O15" s="17">
@@ -1812,11 +1812,11 @@
         <v>69</v>
       </c>
       <c r="B16" s="30">
-        <f>0.6*D16+0.25*E16+0.15*F16</f>
+        <f t="shared" si="0"/>
         <v>6.1849999999999996</v>
       </c>
       <c r="C16" s="33">
-        <f>0.5*D16+0.45*E16+0.05*F16</f>
+        <f t="shared" si="1"/>
         <v>5.9550000000000001</v>
       </c>
       <c r="D16" s="44">
@@ -1829,7 +1829,7 @@
         <v>6.4</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1839,11 +1839,11 @@
         <v>25</v>
       </c>
       <c r="M16" s="16">
-        <f>0.2*P16+0.8*Q16</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="N16" s="16">
-        <f>0.5*Q16+0.3*P16+0.2*O16</f>
+        <f t="shared" si="3"/>
         <v>7.4</v>
       </c>
       <c r="O16" s="17">
@@ -1861,11 +1861,11 @@
         <v>64</v>
       </c>
       <c r="B17" s="31">
-        <f>0.6*D17+0.25*E17+0.15*F17</f>
+        <f t="shared" si="0"/>
         <v>6.129999999999999</v>
       </c>
       <c r="C17" s="34">
-        <f>0.5*D17+0.45*E17+0.05*F17</f>
+        <f t="shared" si="1"/>
         <v>5.95</v>
       </c>
       <c r="D17" s="45">
@@ -1888,11 +1888,11 @@
         <v>33</v>
       </c>
       <c r="M17" s="16">
-        <f>0.2*P17+0.8*Q17</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="N17" s="16">
-        <f>0.5*Q17+0.3*P17+0.2*O17</f>
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="O17" s="17">
@@ -1910,11 +1910,11 @@
         <v>66</v>
       </c>
       <c r="B18" s="32">
-        <f>0.6*D18+0.25*E18+0.15*F18</f>
+        <f t="shared" si="0"/>
         <v>5.74</v>
       </c>
       <c r="C18" s="35">
-        <f>0.5*D18+0.45*E18+0.05*F18</f>
+        <f t="shared" si="1"/>
         <v>5.6899999999999995</v>
       </c>
       <c r="D18" s="3">
@@ -1937,11 +1937,11 @@
         <v>40</v>
       </c>
       <c r="M18" s="14">
-        <f>0.2*P18+0.8*Q18</f>
+        <f t="shared" si="2"/>
         <v>6.8000000000000007</v>
       </c>
       <c r="N18" s="14">
-        <f>0.5*Q18+0.3*P18+0.2*O18</f>
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="O18" s="19">
@@ -1959,11 +1959,11 @@
         <v>73</v>
       </c>
       <c r="B19" s="30">
-        <f>0.6*D19+0.25*E19+0.15*F19</f>
+        <f t="shared" si="0"/>
         <v>4.59</v>
       </c>
       <c r="C19" s="33">
-        <f>0.5*D19+0.45*E19+0.05*F19</f>
+        <f t="shared" si="1"/>
         <v>4.5199999999999996</v>
       </c>
       <c r="D19" s="4">
@@ -1986,11 +1986,11 @@
         <v>19</v>
       </c>
       <c r="M19" s="23">
-        <f>0.2*P19+0.8*Q19</f>
+        <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
       <c r="N19" s="23">
-        <f>0.5*Q19+0.3*P19+0.2*O19</f>
+        <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
       <c r="O19" s="24">
@@ -2008,11 +2008,11 @@
         <v>74</v>
       </c>
       <c r="B20" s="31">
-        <f>0.6*D20+0.25*E20+0.15*F20</f>
+        <f t="shared" si="0"/>
         <v>4.4950000000000001</v>
       </c>
       <c r="C20" s="34">
-        <f>0.5*D20+0.45*E20+0.05*F20</f>
+        <f t="shared" si="1"/>
         <v>4.2650000000000006</v>
       </c>
       <c r="D20" s="5">
@@ -2035,11 +2035,11 @@
         <v>18</v>
       </c>
       <c r="M20" s="16">
-        <f>0.2*P20+0.8*Q20</f>
+        <f t="shared" si="2"/>
         <v>6.2000000000000011</v>
       </c>
       <c r="N20" s="16">
-        <f>0.5*Q20+0.3*P20+0.2*O20</f>
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="O20" s="17">
@@ -2069,11 +2069,11 @@
         <v>43</v>
       </c>
       <c r="M21" s="16">
-        <f>0.2*P21+0.8*Q21</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N21" s="16">
-        <f>0.5*Q21+0.3*P21+0.2*O21</f>
+        <f t="shared" si="3"/>
         <v>6.1</v>
       </c>
       <c r="O21" s="17">
@@ -2091,11 +2091,11 @@
         <v>20</v>
       </c>
       <c r="M22" s="16">
-        <f>0.2*P22+0.8*Q22</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="N22" s="16">
-        <f>0.5*Q22+0.3*P22+0.2*O22</f>
+        <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
       <c r="O22" s="17">
@@ -2113,11 +2113,11 @@
         <v>36</v>
       </c>
       <c r="M23" s="16">
-        <f>0.2*P23+0.8*Q23</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="N23" s="16">
-        <f>0.5*Q23+0.3*P23+0.2*O23</f>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="O23" s="17">
@@ -2135,11 +2135,11 @@
         <v>45</v>
       </c>
       <c r="M24" s="16">
-        <f>0.2*P24+0.8*Q24</f>
+        <f t="shared" si="2"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="N24" s="16">
-        <f>0.5*Q24+0.3*P24+0.2*O24</f>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="O24" s="17">
@@ -2157,11 +2157,11 @@
         <v>41</v>
       </c>
       <c r="M25" s="16">
-        <f>0.2*P25+0.8*Q25</f>
+        <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
       <c r="N25" s="16">
-        <f>0.5*Q25+0.3*P25+0.2*O25</f>
+        <f t="shared" si="3"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="O25" s="17">
@@ -2179,11 +2179,11 @@
         <v>42</v>
       </c>
       <c r="M26" s="16">
-        <f>0.2*P26+0.8*Q26</f>
+        <f t="shared" si="2"/>
         <v>5.2</v>
       </c>
       <c r="N26" s="16">
-        <f>0.5*Q26+0.3*P26+0.2*O26</f>
+        <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
       <c r="O26" s="17">
@@ -2201,11 +2201,11 @@
         <v>44</v>
       </c>
       <c r="M27" s="16">
-        <f>0.2*P27+0.8*Q27</f>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="N27" s="16">
-        <f>0.5*Q27+0.3*P27+0.2*O27</f>
+        <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
       <c r="O27" s="17">
@@ -2223,11 +2223,11 @@
         <v>27</v>
       </c>
       <c r="M28" s="16">
-        <f>0.2*P28+0.8*Q28</f>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="N28" s="16">
-        <f>0.5*Q28+0.3*P28+0.2*O28</f>
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
       <c r="O28" s="17">
@@ -2245,11 +2245,11 @@
         <v>7</v>
       </c>
       <c r="M29" s="14">
-        <f>0.2*P29+0.8*Q29</f>
+        <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="N29" s="14">
-        <f>0.5*Q29+0.3*P29+0.2*O29</f>
+        <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
       <c r="O29" s="19">
@@ -2267,11 +2267,11 @@
         <v>17</v>
       </c>
       <c r="M30" s="16">
-        <f>0.2*P30+0.8*Q30</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N30" s="16">
-        <f>0.5*Q30+0.3*P30+0.2*O30</f>
+        <f t="shared" si="3"/>
         <v>3.3</v>
       </c>
       <c r="O30" s="17">
@@ -2289,11 +2289,11 @@
         <v>8</v>
       </c>
       <c r="M31" s="16">
-        <f>0.2*P31+0.8*Q31</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N31" s="16">
-        <f>0.5*Q31+0.3*P31+0.2*O31</f>
+        <f t="shared" si="3"/>
         <v>2.9</v>
       </c>
       <c r="O31" s="17">
@@ -2311,11 +2311,11 @@
         <v>15</v>
       </c>
       <c r="M32" s="16">
-        <f>0.2*P32+0.8*Q32</f>
+        <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
       <c r="N32" s="16">
-        <f>0.5*Q32+0.3*P32+0.2*O32</f>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="O32" s="17">
@@ -2333,11 +2333,11 @@
         <v>26</v>
       </c>
       <c r="M33" s="16">
-        <f>0.2*P33+0.8*Q33</f>
+        <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
       <c r="N33" s="16">
-        <f>0.5*Q33+0.3*P33+0.2*O33</f>
+        <f t="shared" si="3"/>
         <v>4.3</v>
       </c>
       <c r="O33" s="17">
@@ -2355,11 +2355,11 @@
         <v>13</v>
       </c>
       <c r="M34" s="16">
-        <f>0.2*P34+0.8*Q34</f>
+        <f t="shared" si="2"/>
         <v>3.8000000000000003</v>
       </c>
       <c r="N34" s="16">
-        <f>0.5*Q34+0.3*P34+0.2*O34</f>
+        <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
       <c r="O34" s="17">
@@ -2377,11 +2377,11 @@
         <v>12</v>
       </c>
       <c r="M35" s="16">
-        <f>0.2*P35+0.8*Q35</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="N35" s="16">
-        <f>0.5*Q35+0.3*P35+0.2*O35</f>
+        <f t="shared" si="3"/>
         <v>3.6</v>
       </c>
       <c r="O35" s="17">
@@ -2399,11 +2399,11 @@
         <v>9</v>
       </c>
       <c r="M36" s="16">
-        <f>0.2*P36+0.8*Q36</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="N36" s="16">
-        <f>0.5*Q36+0.3*P36+0.2*O36</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="O36" s="17">
@@ -2421,11 +2421,11 @@
         <v>23</v>
       </c>
       <c r="M37" s="16">
-        <f>0.2*P37+0.8*Q37</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="N37" s="16">
-        <f>0.5*Q37+0.3*P37+0.2*O37</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="O37" s="17">
@@ -2443,11 +2443,11 @@
         <v>24</v>
       </c>
       <c r="M38" s="16">
-        <f>0.2*P38+0.8*Q38</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="N38" s="16">
-        <f>0.5*Q38+0.3*P38+0.2*O38</f>
+        <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
       <c r="O38" s="17">
@@ -2465,11 +2465,11 @@
         <v>47</v>
       </c>
       <c r="M39" s="16">
-        <f>0.2*P39+0.8*Q39</f>
+        <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
       <c r="N39" s="16">
-        <f>0.5*Q39+0.3*P39+0.2*O39</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O39" s="17">
@@ -2487,11 +2487,11 @@
         <v>14</v>
       </c>
       <c r="M40" s="16">
-        <f>0.2*P40+0.8*Q40</f>
+        <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="N40" s="16">
-        <f>0.5*Q40+0.3*P40+0.2*O40</f>
+        <f t="shared" si="3"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="O40" s="17">
@@ -2509,11 +2509,11 @@
         <v>31</v>
       </c>
       <c r="M41" s="14">
-        <f>0.2*P41+0.8*Q41</f>
+        <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="N41" s="14">
-        <f>0.5*Q41+0.3*P41+0.2*O41</f>
+        <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
       <c r="O41" s="19">

--- a/cw.xlsx
+++ b/cw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF17CE-3696-470B-B534-090733C26ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE23101-060D-41F1-AD2E-CD5B0E9078C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="B8" s="33">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6.55</v>
       </c>
       <c r="C8" s="33">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>6.0100000000000007</v>
       </c>
       <c r="D8" s="44">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="E8" s="4">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="F8" s="4">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>54</v>

--- a/cw.xlsx
+++ b/cw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE23101-060D-41F1-AD2E-CD5B0E9078C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A46D65-038B-430F-8AFD-F6EC68B37700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,11 +1078,11 @@
         <v>57</v>
       </c>
       <c r="B2" s="32">
-        <f t="shared" ref="B2:B20" si="0">0.6*D2+0.25*E2+0.15*F2</f>
+        <f>0.6*D2+0.25*E2+0.15*F2</f>
         <v>9.9250000000000007</v>
       </c>
       <c r="C2" s="35">
-        <f t="shared" ref="C2:C20" si="1">0.5*D2+0.45*E2+0.05*F2</f>
+        <f>0.5*D2+0.45*E2+0.05*F2</f>
         <v>9.9749999999999996</v>
       </c>
       <c r="D2" s="3">
@@ -1099,29 +1099,29 @@
       </c>
       <c r="H2" s="50">
         <f>SUMIF(G:G, "b", B:B)</f>
-        <v>24.430000000000003</v>
+        <v>9.9250000000000007</v>
       </c>
       <c r="I2" s="51">
         <f>SUMIF(G:G, "b", D:D)/3</f>
-        <v>8.2666666666666675</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="J2" s="51">
         <f>SUMIF(G:G, "b", E:E)/3</f>
-        <v>7.833333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K2" s="52">
         <f>SUMIF(G:G, "b", F:F)/3</f>
-        <v>8.1666666666666661</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="M2" s="23">
-        <f t="shared" ref="M2:M41" si="2">0.2*P2+0.8*Q2</f>
+        <f>0.2*P2+0.8*Q2</f>
         <v>9.4</v>
       </c>
       <c r="N2" s="23">
-        <f t="shared" ref="N2:N41" si="3">0.5*Q2+0.3*P2+0.2*O2</f>
+        <f>0.5*Q2+0.3*P2+0.2*O2</f>
         <v>7.6999999999999993</v>
       </c>
       <c r="O2" s="24">
@@ -1139,11 +1139,11 @@
         <v>59</v>
       </c>
       <c r="B3" s="30">
-        <f t="shared" si="0"/>
+        <f>0.6*D3+0.25*E3+0.15*F3</f>
         <v>9.4599999999999991</v>
       </c>
       <c r="C3" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D3+0.45*E3+0.05*F3</f>
         <v>9.48</v>
       </c>
       <c r="D3" s="4">
@@ -1160,29 +1160,29 @@
       </c>
       <c r="H3" s="47">
         <f>SUMIF(G:G, "r", B:B)</f>
-        <v>15.645</v>
+        <v>9.4599999999999991</v>
       </c>
       <c r="I3" s="53">
         <f>SUMIF(G:G, "r", D:D)/3</f>
-        <v>5.3666666666666671</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="J3" s="53">
         <f>SUMIF(G:G, "r", E:E)/3</f>
-        <v>4.8999999999999995</v>
+        <v>3.1333333333333333</v>
       </c>
       <c r="K3" s="40">
         <f>SUMIF(G:G, "r", F:F)/3</f>
-        <v>5.1333333333333337</v>
+        <v>3</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P3+0.8*Q3</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="N3" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q3+0.3*P3+0.2*O3</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="O3" s="17">
@@ -1200,11 +1200,11 @@
         <v>58</v>
       </c>
       <c r="B4" s="31">
-        <f t="shared" si="0"/>
+        <f>0.6*D4+0.25*E4+0.15*F4</f>
         <v>8.7550000000000008</v>
       </c>
       <c r="C4" s="34">
-        <f t="shared" si="1"/>
+        <f>0.5*D4+0.45*E4+0.05*F4</f>
         <v>8.6649999999999991</v>
       </c>
       <c r="D4" s="5">
@@ -1221,29 +1221,29 @@
       </c>
       <c r="H4" s="54">
         <f>SUMIF(G:G, "y", B:B)</f>
-        <v>16.625</v>
+        <v>8.7550000000000008</v>
       </c>
       <c r="I4" s="55">
         <f>SUMIF(G:G, "y", D:D)/3</f>
-        <v>5.7333333333333334</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="J4" s="55">
         <f>SUMIF(G:G, "y", E:E)/3</f>
-        <v>5.3666666666666671</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="K4" s="56">
         <f>SUMIF(G:G, "y", F:F)/3</f>
-        <v>5.0666666666666664</v>
+        <v>2.4</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P4+0.8*Q4</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q4+0.3*P4+0.2*O4</f>
         <v>8.1</v>
       </c>
       <c r="O4" s="17">
@@ -1261,11 +1261,11 @@
         <v>65</v>
       </c>
       <c r="B5" s="32">
-        <f t="shared" si="0"/>
+        <f>0.6*D5+0.25*E5+0.15*F5</f>
         <v>8.33</v>
       </c>
       <c r="C5" s="35">
-        <f t="shared" si="1"/>
+        <f>0.5*D5+0.45*E5+0.05*F5</f>
         <v>8.2099999999999991</v>
       </c>
       <c r="D5" s="3">
@@ -1282,29 +1282,29 @@
       </c>
       <c r="H5" s="57">
         <f>SUMIF(G:G, "g", B:B)</f>
-        <v>16.09</v>
+        <v>8.33</v>
       </c>
       <c r="I5" s="58">
         <f>SUMIF(G:G, "g", D:D)/3</f>
-        <v>5.666666666666667</v>
+        <v>2.9</v>
       </c>
       <c r="J5" s="58">
         <f>SUMIF(G:G, "g", E:E)/3</f>
-        <v>4.833333333333333</v>
+        <v>2.5666666666666669</v>
       </c>
       <c r="K5" s="42">
         <f>SUMIF(G:G, "g", F:F)/3</f>
-        <v>5.0333333333333341</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P5+0.8*Q5</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q5+0.3*P5+0.2*O5</f>
         <v>8.1</v>
       </c>
       <c r="O5" s="17">
@@ -1322,11 +1322,11 @@
         <v>61</v>
       </c>
       <c r="B6" s="30">
-        <f t="shared" si="0"/>
+        <f>0.6*D6+0.25*E6+0.15*F6</f>
         <v>8.0499999999999989</v>
       </c>
       <c r="C6" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D6+0.45*E6+0.05*F6</f>
         <v>8.2099999999999991</v>
       </c>
       <c r="D6" s="4">
@@ -1361,11 +1361,11 @@
         <v>37</v>
       </c>
       <c r="M6" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P6+0.8*Q6</f>
         <v>8.4</v>
       </c>
       <c r="N6" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q6+0.3*P6+0.2*O6</f>
         <v>9</v>
       </c>
       <c r="O6" s="17">
@@ -1383,11 +1383,11 @@
         <v>63</v>
       </c>
       <c r="B7" s="31">
-        <f t="shared" si="0"/>
+        <f>0.6*D7+0.25*E7+0.15*F7</f>
         <v>7.9550000000000001</v>
       </c>
       <c r="C7" s="34">
-        <f t="shared" si="1"/>
+        <f>0.5*D7+0.45*E7+0.05*F7</f>
         <v>7.9249999999999998</v>
       </c>
       <c r="D7" s="5">
@@ -1400,7 +1400,7 @@
         <v>8.5</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
@@ -1410,11 +1410,11 @@
         <v>35</v>
       </c>
       <c r="M7" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P7+0.8*Q7</f>
         <v>8.4</v>
       </c>
       <c r="N7" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q7+0.3*P7+0.2*O7</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="O7" s="17">
@@ -1427,16 +1427,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="33">
-        <f t="shared" si="0"/>
+        <f>0.6*D8+0.25*E8+0.15*F8</f>
         <v>6.55</v>
       </c>
       <c r="C8" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D8+0.45*E8+0.05*F8</f>
         <v>6.0100000000000007</v>
       </c>
       <c r="D8" s="44">
@@ -1456,11 +1456,11 @@
         <v>46</v>
       </c>
       <c r="M8" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P8+0.8*Q8</f>
         <v>8.4</v>
       </c>
       <c r="N8" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q8+0.3*P8+0.2*O8</f>
         <v>8.6</v>
       </c>
       <c r="O8" s="19">
@@ -1473,16 +1473,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="33">
-        <f t="shared" si="0"/>
+        <f>0.6*D9+0.25*E9+0.15*F9</f>
         <v>5.3100000000000005</v>
       </c>
       <c r="C9" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D9+0.45*E9+0.05*F9</f>
         <v>5.37</v>
       </c>
       <c r="D9" s="44">
@@ -1502,11 +1502,11 @@
         <v>32</v>
       </c>
       <c r="M9" s="23">
-        <f t="shared" si="2"/>
+        <f>0.2*P9+0.8*Q9</f>
         <v>8</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="3"/>
+        <f>0.5*Q9+0.3*P9+0.2*O9</f>
         <v>5.6</v>
       </c>
       <c r="O9" s="24">
@@ -1519,16 +1519,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="33">
-        <f t="shared" si="0"/>
+        <f>0.6*D10+0.25*E10+0.15*F10</f>
         <v>4.7300000000000004</v>
       </c>
       <c r="C10" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D10+0.45*E10+0.05*F10</f>
         <v>4.6300000000000008</v>
       </c>
       <c r="D10" s="44">
@@ -1548,11 +1548,11 @@
         <v>10</v>
       </c>
       <c r="M10" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P10+0.8*Q10</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N10" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q10+0.3*P10+0.2*O10</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="O10" s="17">
@@ -1565,16 +1565,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="33">
-        <f t="shared" si="0"/>
+        <f>0.6*D11+0.25*E11+0.15*F11</f>
         <v>4.17</v>
       </c>
       <c r="C11" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D11+0.45*E11+0.05*F11</f>
         <v>4.08</v>
       </c>
       <c r="D11" s="44">
@@ -1594,11 +1594,11 @@
         <v>16</v>
       </c>
       <c r="M11" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P11+0.8*Q11</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N11" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q11+0.3*P11+0.2*O11</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="O11" s="17">
@@ -1616,11 +1616,11 @@
         <v>60</v>
       </c>
       <c r="B12" s="35">
-        <f t="shared" si="0"/>
+        <f>0.6*D12+0.25*E12+0.15*F12</f>
         <v>7.87</v>
       </c>
       <c r="C12" s="35">
-        <f t="shared" si="1"/>
+        <f>0.5*D12+0.45*E12+0.05*F12</f>
         <v>7.94</v>
       </c>
       <c r="D12" s="43">
@@ -1633,7 +1633,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -1643,11 +1643,11 @@
         <v>39</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P12+0.8*Q12</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N12" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q12+0.3*P12+0.2*O12</f>
         <v>7.9</v>
       </c>
       <c r="O12" s="17">
@@ -1665,11 +1665,11 @@
         <v>62</v>
       </c>
       <c r="B13" s="33">
-        <f t="shared" si="0"/>
+        <f>0.6*D13+0.25*E13+0.15*F13</f>
         <v>7.7600000000000007</v>
       </c>
       <c r="C13" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D13+0.45*E13+0.05*F13</f>
         <v>7.5700000000000012</v>
       </c>
       <c r="D13" s="44">
@@ -1682,7 +1682,7 @@
         <v>7.2</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -1692,11 +1692,11 @@
         <v>34</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P13+0.8*Q13</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q13+0.3*P13+0.2*O13</f>
         <v>7.5</v>
       </c>
       <c r="O13" s="17">
@@ -1714,11 +1714,11 @@
         <v>75</v>
       </c>
       <c r="B14" s="34">
-        <f t="shared" si="0"/>
+        <f>0.6*D14+0.25*E14+0.15*F14</f>
         <v>6.55</v>
       </c>
       <c r="C14" s="34">
-        <f t="shared" si="1"/>
+        <f>0.5*D14+0.45*E14+0.05*F14</f>
         <v>6.3</v>
       </c>
       <c r="D14" s="45">
@@ -1731,7 +1731,7 @@
         <v>6.5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
@@ -1741,11 +1741,11 @@
         <v>21</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P14+0.8*Q14</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q14+0.3*P14+0.2*O14</f>
         <v>6.7</v>
       </c>
       <c r="O14" s="17">
@@ -1763,11 +1763,11 @@
         <v>70</v>
       </c>
       <c r="B15" s="35">
-        <f t="shared" si="0"/>
+        <f>0.6*D15+0.25*E15+0.15*F15</f>
         <v>6.2449999999999992</v>
       </c>
       <c r="C15" s="35">
-        <f t="shared" si="1"/>
+        <f>0.5*D15+0.45*E15+0.05*F15</f>
         <v>6.2150000000000007</v>
       </c>
       <c r="D15" s="43">
@@ -1790,11 +1790,11 @@
         <v>28</v>
       </c>
       <c r="M15" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P15+0.8*Q15</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="N15" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q15+0.3*P15+0.2*O15</f>
         <v>7.6</v>
       </c>
       <c r="O15" s="17">
@@ -1812,11 +1812,11 @@
         <v>69</v>
       </c>
       <c r="B16" s="30">
-        <f t="shared" si="0"/>
+        <f>0.6*D16+0.25*E16+0.15*F16</f>
         <v>6.1849999999999996</v>
       </c>
       <c r="C16" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D16+0.45*E16+0.05*F16</f>
         <v>5.9550000000000001</v>
       </c>
       <c r="D16" s="44">
@@ -1829,7 +1829,7 @@
         <v>6.4</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -1839,11 +1839,11 @@
         <v>25</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P16+0.8*Q16</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q16+0.3*P16+0.2*O16</f>
         <v>7.4</v>
       </c>
       <c r="O16" s="17">
@@ -1861,11 +1861,11 @@
         <v>64</v>
       </c>
       <c r="B17" s="31">
-        <f t="shared" si="0"/>
+        <f>0.6*D17+0.25*E17+0.15*F17</f>
         <v>6.129999999999999</v>
       </c>
       <c r="C17" s="34">
-        <f t="shared" si="1"/>
+        <f>0.5*D17+0.45*E17+0.05*F17</f>
         <v>5.95</v>
       </c>
       <c r="D17" s="45">
@@ -1888,11 +1888,11 @@
         <v>33</v>
       </c>
       <c r="M17" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P17+0.8*Q17</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="N17" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q17+0.3*P17+0.2*O17</f>
         <v>6.2</v>
       </c>
       <c r="O17" s="17">
@@ -1910,11 +1910,11 @@
         <v>66</v>
       </c>
       <c r="B18" s="32">
-        <f t="shared" si="0"/>
+        <f>0.6*D18+0.25*E18+0.15*F18</f>
         <v>5.74</v>
       </c>
       <c r="C18" s="35">
-        <f t="shared" si="1"/>
+        <f>0.5*D18+0.45*E18+0.05*F18</f>
         <v>5.6899999999999995</v>
       </c>
       <c r="D18" s="3">
@@ -1937,11 +1937,11 @@
         <v>40</v>
       </c>
       <c r="M18" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P18+0.8*Q18</f>
         <v>6.8000000000000007</v>
       </c>
       <c r="N18" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q18+0.3*P18+0.2*O18</f>
         <v>6.2</v>
       </c>
       <c r="O18" s="19">
@@ -1959,11 +1959,11 @@
         <v>73</v>
       </c>
       <c r="B19" s="30">
-        <f t="shared" si="0"/>
+        <f>0.6*D19+0.25*E19+0.15*F19</f>
         <v>4.59</v>
       </c>
       <c r="C19" s="33">
-        <f t="shared" si="1"/>
+        <f>0.5*D19+0.45*E19+0.05*F19</f>
         <v>4.5199999999999996</v>
       </c>
       <c r="D19" s="4">
@@ -1986,11 +1986,11 @@
         <v>19</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="2"/>
+        <f>0.2*P19+0.8*Q19</f>
         <v>6.4</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="3"/>
+        <f>0.5*Q19+0.3*P19+0.2*O19</f>
         <v>5.6</v>
       </c>
       <c r="O19" s="24">
@@ -2008,11 +2008,11 @@
         <v>74</v>
       </c>
       <c r="B20" s="31">
-        <f t="shared" si="0"/>
+        <f>0.6*D20+0.25*E20+0.15*F20</f>
         <v>4.4950000000000001</v>
       </c>
       <c r="C20" s="34">
-        <f t="shared" si="1"/>
+        <f>0.5*D20+0.45*E20+0.05*F20</f>
         <v>4.2650000000000006</v>
       </c>
       <c r="D20" s="5">
@@ -2035,11 +2035,11 @@
         <v>18</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P20+0.8*Q20</f>
         <v>6.2000000000000011</v>
       </c>
       <c r="N20" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q20+0.3*P20+0.2*O20</f>
         <v>6.2</v>
       </c>
       <c r="O20" s="17">
@@ -2069,11 +2069,11 @@
         <v>43</v>
       </c>
       <c r="M21" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P21+0.8*Q21</f>
         <v>6</v>
       </c>
       <c r="N21" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q21+0.3*P21+0.2*O21</f>
         <v>6.1</v>
       </c>
       <c r="O21" s="17">
@@ -2091,11 +2091,11 @@
         <v>20</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P22+0.8*Q22</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q22+0.3*P22+0.2*O22</f>
         <v>5.3</v>
       </c>
       <c r="O22" s="17">
@@ -2113,11 +2113,11 @@
         <v>36</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P23+0.8*Q23</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q23+0.3*P23+0.2*O23</f>
         <v>4.5</v>
       </c>
       <c r="O23" s="17">
@@ -2135,11 +2135,11 @@
         <v>45</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P24+0.8*Q24</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q24+0.3*P24+0.2*O24</f>
         <v>4.3</v>
       </c>
       <c r="O24" s="17">
@@ -2157,11 +2157,11 @@
         <v>41</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P25+0.8*Q25</f>
         <v>5.4</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q25+0.3*P25+0.2*O25</f>
         <v>5.3999999999999995</v>
       </c>
       <c r="O25" s="17">
@@ -2179,11 +2179,11 @@
         <v>42</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P26+0.8*Q26</f>
         <v>5.2</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q26+0.3*P26+0.2*O26</f>
         <v>6.2</v>
       </c>
       <c r="O26" s="17">
@@ -2201,11 +2201,11 @@
         <v>44</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P27+0.8*Q27</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q27+0.3*P27+0.2*O27</f>
         <v>5.7</v>
       </c>
       <c r="O27" s="17">
@@ -2223,11 +2223,11 @@
         <v>27</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P28+0.8*Q28</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q28+0.3*P28+0.2*O28</f>
         <v>5.5</v>
       </c>
       <c r="O28" s="17">
@@ -2245,11 +2245,11 @@
         <v>7</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P29+0.8*Q29</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q29+0.3*P29+0.2*O29</f>
         <v>5.3</v>
       </c>
       <c r="O29" s="19">
@@ -2267,11 +2267,11 @@
         <v>17</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P30+0.8*Q30</f>
         <v>4</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q30+0.3*P30+0.2*O30</f>
         <v>3.3</v>
       </c>
       <c r="O30" s="17">
@@ -2289,11 +2289,11 @@
         <v>8</v>
       </c>
       <c r="M31" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P31+0.8*Q31</f>
         <v>4</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q31+0.3*P31+0.2*O31</f>
         <v>2.9</v>
       </c>
       <c r="O31" s="17">
@@ -2311,11 +2311,11 @@
         <v>15</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P32+0.8*Q32</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N32" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q32+0.3*P32+0.2*O32</f>
         <v>4.3</v>
       </c>
       <c r="O32" s="17">
@@ -2333,11 +2333,11 @@
         <v>26</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P33+0.8*Q33</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q33+0.3*P33+0.2*O33</f>
         <v>4.3</v>
       </c>
       <c r="O33" s="17">
@@ -2355,11 +2355,11 @@
         <v>13</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P34+0.8*Q34</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q34+0.3*P34+0.2*O34</f>
         <v>3.9</v>
       </c>
       <c r="O34" s="17">
@@ -2377,11 +2377,11 @@
         <v>12</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P35+0.8*Q35</f>
         <v>3.2</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q35+0.3*P35+0.2*O35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="17">
@@ -2399,11 +2399,11 @@
         <v>9</v>
       </c>
       <c r="M36" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P36+0.8*Q36</f>
         <v>3.2</v>
       </c>
       <c r="N36" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q36+0.3*P36+0.2*O36</f>
         <v>3.2</v>
       </c>
       <c r="O36" s="17">
@@ -2421,11 +2421,11 @@
         <v>23</v>
       </c>
       <c r="M37" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P37+0.8*Q37</f>
         <v>3.2</v>
       </c>
       <c r="N37" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q37+0.3*P37+0.2*O37</f>
         <v>3.2</v>
       </c>
       <c r="O37" s="17">
@@ -2443,11 +2443,11 @@
         <v>24</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P38+0.8*Q38</f>
         <v>3.2</v>
       </c>
       <c r="N38" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q38+0.3*P38+0.2*O38</f>
         <v>3.2</v>
       </c>
       <c r="O38" s="17">
@@ -2465,11 +2465,11 @@
         <v>47</v>
       </c>
       <c r="M39" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P39+0.8*Q39</f>
         <v>3.2</v>
       </c>
       <c r="N39" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q39+0.3*P39+0.2*O39</f>
         <v>3</v>
       </c>
       <c r="O39" s="17">
@@ -2487,11 +2487,11 @@
         <v>14</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="2"/>
+        <f>0.2*P40+0.8*Q40</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="N40" s="16">
-        <f t="shared" si="3"/>
+        <f>0.5*Q40+0.3*P40+0.2*O40</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="O40" s="17">
@@ -2509,11 +2509,11 @@
         <v>31</v>
       </c>
       <c r="M41" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P41+0.8*Q41</f>
         <v>1.6</v>
       </c>
       <c r="N41" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q41+0.3*P41+0.2*O41</f>
         <v>1.8</v>
       </c>
       <c r="O41" s="19">

--- a/cw.xlsx
+++ b/cw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C67DFA-24AF-4299-A305-D349665D41AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597165A1-B7D9-409E-A83F-CF5526146F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -558,10 +558,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,18 +573,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,13 +993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>83</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -1035,54 +1046,54 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="39">
-        <f t="shared" ref="B2:B20" si="0">0.7*D2+0.1*E2+0.2*F2</f>
-        <v>10</v>
-      </c>
-      <c r="C2" s="50">
-        <f t="shared" ref="C2:C20" si="1">0.6*D2+0.25*E2+0.15*F2</f>
-        <v>10</v>
-      </c>
-      <c r="D2" s="40">
-        <v>10</v>
-      </c>
-      <c r="E2" s="40">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47">
-        <v>10</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="35">
+        <f>0.7*D2+0.1*E2+0.2*F2</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="40">
+        <f>0.6*D2+0.25*E2+0.15*F2</f>
+        <v>10</v>
+      </c>
+      <c r="D2" s="44">
+        <v>10</v>
+      </c>
+      <c r="E2" s="36">
+        <v>10</v>
+      </c>
+      <c r="F2" s="37">
+        <v>10</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="47">
         <f>SUMIF(G:G, "b", B:B)</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="42">
+        <v>22.71</v>
+      </c>
+      <c r="I2" s="48">
         <f>SUMIF(G:G, "b", D:D)/3</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="J2" s="42">
+        <v>7.5666666666666673</v>
+      </c>
+      <c r="J2" s="48">
         <f>SUMIF(G:G, "b", E:E)/3</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="K2" s="42">
+        <v>7.2666666666666666</v>
+      </c>
+      <c r="K2" s="49">
         <f>SUMIF(G:G, "b", F:F)/3</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="L2" s="33" t="s">
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>48</v>
       </c>
       <c r="M2" s="20">
-        <f t="shared" ref="M2:M41" si="2">0.2*P2+0.8*Q2</f>
+        <f>0.2*P2+0.8*Q2</f>
         <v>9.4</v>
       </c>
       <c r="N2" s="20">
-        <f t="shared" ref="N2:N41" si="3">0.5*Q2+0.3*P2+0.2*O2</f>
+        <f>0.5*Q2+0.3*P2+0.2*O2</f>
         <v>7.6999999999999993</v>
       </c>
       <c r="O2" s="21">
@@ -1097,317 +1108,281 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B3" s="26">
-        <f t="shared" si="0"/>
-        <v>9.34</v>
-      </c>
-      <c r="C3" s="51">
-        <f t="shared" si="1"/>
-        <v>9.3550000000000004</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.4</v>
+        <f>0.7*D3+0.1*E3+0.2*F3</f>
+        <v>6.41</v>
+      </c>
+      <c r="C3" s="41">
+        <f>0.6*D3+0.25*E3+0.15*F3</f>
+        <v>6.3299999999999992</v>
+      </c>
+      <c r="D3" s="45">
+        <v>6.3</v>
       </c>
       <c r="E3" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="F3" s="48">
-        <v>9.1</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="28">
-        <f>SUMIF(G:G, "r", B:B)</f>
-        <v>9.34</v>
-      </c>
-      <c r="I3" s="30">
-        <f>SUMIF(G:G, "r", D:D)/3</f>
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="J3" s="30">
-        <f>SUMIF(G:G, "r", E:E)/3</f>
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="K3" s="30">
-        <f>SUMIF(G:G, "r", F:F)/3</f>
-        <v>3.0333333333333332</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="F3" s="38">
+        <v>7</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="M3" s="14">
-        <f t="shared" si="2"/>
-        <v>9.1999999999999993</v>
+        <f>0.2*P3+0.8*Q3</f>
+        <v>6.8000000000000007</v>
       </c>
       <c r="N3" s="14">
-        <f t="shared" si="3"/>
-        <v>8.6999999999999993</v>
+        <f>0.5*Q3+0.3*P3+0.2*O3</f>
+        <v>7.6</v>
       </c>
       <c r="O3" s="15">
+        <v>8</v>
+      </c>
+      <c r="P3" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="16">
         <v>6</v>
-      </c>
-      <c r="P3" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B4" s="27">
-        <f t="shared" si="0"/>
-        <v>8.879999999999999</v>
-      </c>
-      <c r="C4" s="52">
-        <f t="shared" si="1"/>
-        <v>8.7550000000000008</v>
-      </c>
-      <c r="D4" s="4">
-        <v>9.5</v>
+        <f>0.7*D4+0.1*E4+0.2*F4</f>
+        <v>6.3</v>
+      </c>
+      <c r="C4" s="42">
+        <f>0.6*D4+0.25*E4+0.15*F4</f>
+        <v>6.22</v>
+      </c>
+      <c r="D4" s="46">
+        <v>6.4</v>
       </c>
       <c r="E4" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="F4" s="49">
-        <v>7.2</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="43">
-        <f>SUMIF(G:G, "y", B:B)</f>
-        <v>8.879999999999999</v>
-      </c>
-      <c r="I4" s="44">
-        <f>SUMIF(G:G, "y", D:D)/3</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="J4" s="44">
-        <f>SUMIF(G:G, "y", E:E)/3</f>
-        <v>2.6333333333333333</v>
-      </c>
-      <c r="K4" s="44">
-        <f>SUMIF(G:G, "y", F:F)/3</f>
-        <v>2.4</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>11</v>
+        <v>5.8</v>
+      </c>
+      <c r="F4" s="39">
+        <v>6.2</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P4+0.8*Q4</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N4" s="14">
+        <f>0.5*Q4+0.3*P4+0.2*O4</f>
+        <v>6.2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="35">
+        <f>0.7*D5+0.1*E5+0.2*F5</f>
+        <v>8.51</v>
+      </c>
+      <c r="C5" s="40">
+        <f>0.6*D5+0.25*E5+0.15*F5</f>
+        <v>8.2850000000000001</v>
+      </c>
+      <c r="D5" s="44">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E5" s="36">
+        <v>7.1</v>
+      </c>
+      <c r="F5" s="37">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="52">
+        <f>SUMIF(G:G, "g", B:B)</f>
+        <v>22.84</v>
+      </c>
+      <c r="I5" s="53">
+        <f>SUMIF(G:G, "g", D:D)/3</f>
+        <v>7.8</v>
+      </c>
+      <c r="J5" s="53">
+        <f>SUMIF(G:G, "g", E:E)/3</f>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="K5" s="54">
+        <f>SUMIF(G:G, "g", F:F)/3</f>
+        <v>7.3</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="14">
+        <f>0.2*P5+0.8*Q5</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="N4" s="14">
-        <f t="shared" si="3"/>
+      <c r="N5" s="14">
+        <f>0.5*Q5+0.3*P5+0.2*O5</f>
         <v>8.1</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O5" s="15">
         <v>3</v>
       </c>
-      <c r="P4" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="16">
+      <c r="P5" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="16">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="39">
-        <f t="shared" si="0"/>
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="C5" s="50">
-        <f t="shared" si="1"/>
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="D5" s="40">
-        <v>8.4</v>
-      </c>
-      <c r="E5" s="40">
-        <v>8.5</v>
-      </c>
-      <c r="F5" s="47">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="14">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O5" s="15">
-        <v>9</v>
-      </c>
-      <c r="P5" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="26">
-        <f t="shared" si="0"/>
-        <v>8.51</v>
-      </c>
-      <c r="C6" s="51">
-        <f t="shared" si="1"/>
-        <v>8.2850000000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.8000000000000007</v>
+        <f>0.7*D6+0.1*E6+0.2*F6</f>
+        <v>7.8999999999999995</v>
+      </c>
+      <c r="C6" s="41">
+        <f>0.6*D6+0.25*E6+0.15*F6</f>
+        <v>7.7999999999999989</v>
+      </c>
+      <c r="D6" s="45">
+        <v>8.1999999999999993</v>
       </c>
       <c r="E6" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G6" s="14" t="s">
+        <v>7.2</v>
+      </c>
+      <c r="F6" s="38">
+        <v>7.2</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="45">
-        <f>SUMIF(G:G, "g", B:B)</f>
-        <v>8.51</v>
-      </c>
-      <c r="I6" s="46">
-        <f>SUMIF(G:G, "g", D:D)/3</f>
-        <v>2.9333333333333336</v>
-      </c>
-      <c r="J6" s="46">
-        <f>SUMIF(G:G, "g", E:E)/3</f>
-        <v>2.3666666666666667</v>
-      </c>
-      <c r="K6" s="46">
-        <f>SUMIF(G:G, "g", F:F)/3</f>
-        <v>2.7333333333333329</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>22</v>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="2"/>
-        <v>9.1999999999999993</v>
+        <f>0.2*P6+0.8*Q6</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="N6" s="14">
-        <f t="shared" si="3"/>
-        <v>8.1</v>
+        <f>0.5*Q6+0.3*P6+0.2*O6</f>
+        <v>7.5</v>
       </c>
       <c r="O6" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P6" s="15">
         <v>10</v>
       </c>
       <c r="Q6" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="26">
-        <f t="shared" si="0"/>
-        <v>7.73</v>
-      </c>
-      <c r="C7" s="51">
-        <f t="shared" si="1"/>
-        <v>7.95</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="27">
+        <f>0.7*D7+0.1*E7+0.2*F7</f>
+        <v>6.43</v>
+      </c>
+      <c r="C7" s="42">
+        <f>0.6*D7+0.25*E7+0.15*F7</f>
+        <v>6.4399999999999995</v>
+      </c>
+      <c r="D7" s="46">
+        <v>6.4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="F7" s="39">
+        <v>6.5</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="14">
+        <f>0.2*P7+0.8*Q7</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N7" s="14">
+        <f>0.5*Q7+0.3*P7+0.2*O7</f>
+        <v>6.2</v>
+      </c>
+      <c r="O7" s="15">
+        <v>1</v>
+      </c>
+      <c r="P7" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="35">
+        <f>0.7*D8+0.1*E8+0.2*F8</f>
+        <v>6.3999999999999995</v>
+      </c>
+      <c r="C8" s="40">
+        <f>0.6*D8+0.25*E8+0.15*F8</f>
+        <v>6.0600000000000005</v>
+      </c>
+      <c r="D8" s="44">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F7" s="48">
-        <v>9.5</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="29">
-        <f>SUMIF(G:G, "p", B:B)</f>
-        <v>7.73</v>
-      </c>
-      <c r="I7" s="31">
-        <f>SUMIF(G:G, "p", D:D)/3</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="J7" s="31">
-        <f>SUMIF(G:G, "p", E:E)/3</f>
-        <v>3.1</v>
-      </c>
-      <c r="K7" s="31">
-        <f>SUMIF(G:G, "p", F:F)/3</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O7" s="15">
-        <v>10</v>
-      </c>
-      <c r="P7" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="27">
-        <f t="shared" si="0"/>
-        <v>7.8999999999999995</v>
-      </c>
-      <c r="C8" s="52">
-        <f t="shared" si="1"/>
-        <v>7.7999999999999989</v>
-      </c>
-      <c r="D8" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E8" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="F8" s="49">
-        <v>7.2</v>
+      <c r="E8" s="36">
+        <v>4.2</v>
+      </c>
+      <c r="F8" s="37">
+        <v>5.4</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>54</v>
@@ -1416,47 +1391,47 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="35" t="s">
-        <v>34</v>
+      <c r="L8" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="2"/>
-        <v>7.6000000000000005</v>
+        <f>0.2*P8+0.8*Q8</f>
+        <v>8.4</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="3"/>
-        <v>7.5</v>
+        <f>0.5*Q8+0.3*P8+0.2*O8</f>
+        <v>8.6</v>
       </c>
       <c r="O8" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P8" s="17">
         <v>10</v>
       </c>
       <c r="Q8" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="39">
-        <f t="shared" si="0"/>
-        <v>7.4599999999999991</v>
-      </c>
-      <c r="C9" s="50">
-        <f t="shared" si="1"/>
-        <v>7.5449999999999999</v>
-      </c>
-      <c r="D9" s="40">
-        <v>7.1</v>
-      </c>
-      <c r="E9" s="40">
-        <v>8.1</v>
-      </c>
-      <c r="F9" s="47">
-        <v>8.4</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="26">
+        <f>0.7*D9+0.1*E9+0.2*F9</f>
+        <v>5.39</v>
+      </c>
+      <c r="C9" s="41">
+        <f>0.6*D9+0.25*E9+0.15*F9</f>
+        <v>5.2449999999999992</v>
+      </c>
+      <c r="D9" s="45">
+        <v>6.7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1.5</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>54</v>
@@ -1465,46 +1440,46 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="33" t="s">
-        <v>39</v>
+      <c r="L9" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="M9" s="20">
-        <f t="shared" si="2"/>
-        <v>7.6000000000000005</v>
+        <f>0.2*P9+0.8*Q9</f>
+        <v>8</v>
       </c>
       <c r="N9" s="20">
-        <f t="shared" si="3"/>
-        <v>7.9</v>
+        <f>0.5*Q9+0.3*P9+0.2*O9</f>
+        <v>5.6</v>
       </c>
       <c r="O9" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P9" s="21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="27">
-        <f t="shared" si="0"/>
-        <v>7.1599999999999993</v>
-      </c>
-      <c r="C10" s="52">
-        <f t="shared" si="1"/>
-        <v>6.9049999999999994</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="F10" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="26">
+        <f>0.7*D10+0.1*E10+0.2*F10</f>
+        <v>4.82</v>
+      </c>
+      <c r="C10" s="41">
+        <f>0.6*D10+0.25*E10+0.15*F10</f>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="D10" s="45">
+        <v>4.3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="F10" s="38">
         <v>7.1</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1514,19 +1489,19 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="34" t="s">
-        <v>21</v>
+      <c r="L10" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P10+0.8*Q10</f>
         <v>7.6000000000000005</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="3"/>
-        <v>6.7</v>
+        <f>0.5*Q10+0.3*P10+0.2*O10</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O10" s="15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P10" s="15">
         <v>10</v>
@@ -1535,26 +1510,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="39">
-        <f t="shared" si="0"/>
-        <v>6.6899999999999995</v>
-      </c>
-      <c r="C11" s="50">
-        <f t="shared" si="1"/>
-        <v>6.49</v>
-      </c>
-      <c r="D11" s="40">
-        <v>6.8</v>
-      </c>
-      <c r="E11" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="F11" s="47">
-        <v>6.9</v>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="27">
+        <f>0.7*D11+0.1*E11+0.2*F11</f>
+        <v>4.53</v>
+      </c>
+      <c r="C11" s="42">
+        <f>0.6*D11+0.25*E11+0.15*F11</f>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D11" s="46">
+        <v>5.9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>54</v>
@@ -1563,365 +1538,401 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="34" t="s">
-        <v>25</v>
+      <c r="L11" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
+        <f>0.2*P11+0.8*Q11</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="N11" s="14">
-        <f t="shared" si="3"/>
-        <v>7.4</v>
+        <f>0.5*Q11+0.3*P11+0.2*O11</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O11" s="15">
+        <v>9</v>
+      </c>
+      <c r="P11" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="16">
         <v>7</v>
       </c>
-      <c r="P11" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>6</v>
-      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="26">
-        <f t="shared" si="0"/>
-        <v>6.43</v>
-      </c>
-      <c r="C12" s="51">
-        <f t="shared" si="1"/>
-        <v>6.4399999999999995</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="F12" s="48">
-        <v>6.5</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="34" t="s">
-        <v>33</v>
+      <c r="A12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="35">
+        <f>0.7*D12+0.1*E12+0.2*F12</f>
+        <v>8.879999999999999</v>
+      </c>
+      <c r="C12" s="40">
+        <f>0.6*D12+0.25*E12+0.15*F12</f>
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="D12" s="44">
+        <v>9.5</v>
+      </c>
+      <c r="E12" s="36">
+        <v>7.9</v>
+      </c>
+      <c r="F12" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="55">
+        <f>SUMIF(G:G, "p", B:B)</f>
+        <v>20.959999999999994</v>
+      </c>
+      <c r="I12" s="56">
+        <f>SUMIF(G:G, "p", D:D)/3</f>
+        <v>6.5666666666666673</v>
+      </c>
+      <c r="J12" s="56">
+        <f>SUMIF(G:G, "p", E:E)/3</f>
+        <v>7.3666666666666671</v>
+      </c>
+      <c r="K12" s="57">
+        <f>SUMIF(G:G, "p", F:F)/3</f>
+        <v>8.2666666666666675</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
+        <f>0.2*P12+0.8*Q12</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" si="3"/>
-        <v>6.2</v>
+        <f>0.5*Q12+0.3*P12+0.2*O12</f>
+        <v>8.1</v>
       </c>
       <c r="O12" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="15">
         <v>10</v>
       </c>
       <c r="Q12" s="16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B13" s="26">
-        <f t="shared" si="0"/>
-        <v>6.41</v>
-      </c>
-      <c r="C13" s="51">
-        <f t="shared" si="1"/>
-        <v>6.3299999999999992</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.3</v>
+        <f>0.7*D13+0.1*E13+0.2*F13</f>
+        <v>7.4599999999999991</v>
+      </c>
+      <c r="C13" s="41">
+        <f>0.6*D13+0.25*E13+0.15*F13</f>
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="D13" s="45">
+        <v>7.1</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
-      </c>
-      <c r="F13" s="48">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>54</v>
+        <v>8.1</v>
+      </c>
+      <c r="F13" s="38">
+        <v>8.4</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="34" t="s">
-        <v>28</v>
+      <c r="K13" s="50"/>
+      <c r="L13" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
+        <f>0.2*P13+0.8*Q13</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="3"/>
-        <v>7.6</v>
+        <f>0.5*Q13+0.3*P13+0.2*O13</f>
+        <v>7.9</v>
       </c>
       <c r="O13" s="15">
+        <v>7</v>
+      </c>
+      <c r="P13" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="27">
+        <f>0.7*D14+0.1*E14+0.2*F14</f>
+        <v>4.6199999999999992</v>
+      </c>
+      <c r="C14" s="42">
+        <f>0.6*D14+0.25*E14+0.15*F14</f>
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="D14" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F14" s="39">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="14">
+        <f>0.2*P14+0.8*Q14</f>
+        <v>6.4</v>
+      </c>
+      <c r="N14" s="14">
+        <f>0.5*Q14+0.3*P14+0.2*O14</f>
+        <v>5.6</v>
+      </c>
+      <c r="O14" s="15">
         <v>8</v>
       </c>
-      <c r="P13" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="16">
+      <c r="P14" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="35">
+        <f>0.7*D15+0.1*E15+0.2*F15</f>
+        <v>9.34</v>
+      </c>
+      <c r="C15" s="40">
+        <f>0.6*D15+0.25*E15+0.15*F15</f>
+        <v>9.3550000000000004</v>
+      </c>
+      <c r="D15" s="44">
+        <v>9.4</v>
+      </c>
+      <c r="E15" s="36">
+        <v>9.4</v>
+      </c>
+      <c r="F15" s="37">
+        <v>9.1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="58">
+        <f>SUMIF(G:G, "r", B:B)</f>
+        <v>23.189999999999998</v>
+      </c>
+      <c r="I15" s="59">
+        <f>SUMIF(G:G, "r", D:D)/3</f>
+        <v>7.8666666666666671</v>
+      </c>
+      <c r="J15" s="59">
+        <f>SUMIF(G:G, "r", E:E)/3</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="K15" s="60">
+        <f>SUMIF(G:G, "r", F:F)/3</f>
+        <v>7.7</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="14">
+        <f>0.2*P15+0.8*Q15</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N15" s="14">
+        <f>0.5*Q15+0.3*P15+0.2*O15</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O15" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="26">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
-      </c>
-      <c r="C14" s="51">
-        <f t="shared" si="1"/>
-        <v>6.22</v>
-      </c>
-      <c r="D14" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="F14" s="48">
-        <v>6.2</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="N14" s="14">
-        <f t="shared" si="3"/>
-        <v>6.2</v>
-      </c>
-      <c r="O14" s="15">
-        <v>1</v>
-      </c>
-      <c r="P14" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="27">
-        <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
-      </c>
-      <c r="C15" s="52">
-        <f t="shared" si="1"/>
-        <v>6.0600000000000005</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="F15" s="49">
-        <v>5.4</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="N15" s="14">
-        <f t="shared" si="3"/>
-        <v>8.6</v>
-      </c>
-      <c r="O15" s="15">
-        <v>8</v>
-      </c>
       <c r="P15" s="15">
         <v>10</v>
       </c>
       <c r="Q15" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="39">
-        <f t="shared" si="0"/>
-        <v>5.39</v>
-      </c>
-      <c r="C16" s="50">
-        <f t="shared" si="1"/>
-        <v>5.2449999999999992</v>
-      </c>
-      <c r="D16" s="40">
-        <v>6.7</v>
-      </c>
-      <c r="E16" s="40">
-        <v>4</v>
-      </c>
-      <c r="F16" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>54</v>
+      <c r="A16" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="26">
+        <f>0.7*D16+0.1*E16+0.2*F16</f>
+        <v>7.1599999999999993</v>
+      </c>
+      <c r="C16" s="41">
+        <f>0.6*D16+0.25*E16+0.15*F16</f>
+        <v>6.9049999999999994</v>
+      </c>
+      <c r="D16" s="45">
+        <v>7.4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="F16" s="38">
+        <v>7.1</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="34" t="s">
-        <v>32</v>
+      <c r="K16" s="50"/>
+      <c r="L16" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>0.2*P16+0.8*Q16</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="3"/>
-        <v>5.6</v>
+        <f>0.5*Q16+0.3*P16+0.2*O16</f>
+        <v>6.7</v>
       </c>
       <c r="O16" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="26">
-        <f t="shared" si="0"/>
-        <v>4.9799999999999995</v>
-      </c>
-      <c r="C17" s="51">
-        <f t="shared" si="1"/>
-        <v>4.8349999999999991</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F17" s="48">
-        <v>5</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="34" t="s">
-        <v>18</v>
+      <c r="A17" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="27">
+        <f>0.7*D17+0.1*E17+0.2*F17</f>
+        <v>6.6899999999999995</v>
+      </c>
+      <c r="C17" s="42">
+        <f>0.6*D17+0.25*E17+0.15*F17</f>
+        <v>6.49</v>
+      </c>
+      <c r="D17" s="46">
+        <v>6.8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="39">
+        <v>6.9</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="2"/>
-        <v>6.2000000000000011</v>
+        <f>0.2*P17+0.8*Q17</f>
+        <v>6.8000000000000007</v>
       </c>
       <c r="N17" s="14">
-        <f t="shared" si="3"/>
-        <v>6.2</v>
+        <f>0.5*Q17+0.3*P17+0.2*O17</f>
+        <v>7.4</v>
       </c>
       <c r="O17" s="15">
+        <v>7</v>
+      </c>
+      <c r="P17" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="35">
+        <f>0.7*D18+0.1*E18+0.2*F18</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C18" s="40">
+        <f>0.6*D18+0.25*E18+0.15*F18</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D18" s="44">
+        <v>8.4</v>
+      </c>
+      <c r="E18" s="36">
+        <v>8.5</v>
+      </c>
+      <c r="F18" s="37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="61">
+        <f>SUMIF(G:G, "y", B:B)</f>
+        <v>21.180000000000003</v>
+      </c>
+      <c r="I18" s="62">
+        <f>SUMIF(G:G, "y", D:D)/3</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="J18" s="62">
+        <f>SUMIF(G:G, "y", E:E)/3</f>
+        <v>7.3</v>
+      </c>
+      <c r="K18" s="63">
+        <f>SUMIF(G:G, "y", F:F)/3</f>
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="12">
+        <f>0.2*P18+0.8*Q18</f>
+        <v>8.4</v>
+      </c>
+      <c r="N18" s="12">
+        <f>0.5*Q18+0.3*P18+0.2*O18</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O18" s="17">
         <v>9</v>
       </c>
-      <c r="P17" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="26">
-        <f t="shared" si="0"/>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="C18" s="51">
-        <f t="shared" si="1"/>
-        <v>4.7649999999999997</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="F18" s="48">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="12">
-        <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="N18" s="12">
-        <f t="shared" si="3"/>
-        <v>5.6</v>
-      </c>
-      <c r="O18" s="17">
-        <v>8</v>
-      </c>
       <c r="P18" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="18">
         <v>8</v>
@@ -1929,97 +1940,97 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B19" s="26">
-        <f t="shared" si="0"/>
-        <v>4.82</v>
-      </c>
-      <c r="C19" s="51">
-        <f t="shared" si="1"/>
-        <v>4.6199999999999992</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4.3</v>
+        <f>0.7*D19+0.1*E19+0.2*F19</f>
+        <v>7.73</v>
+      </c>
+      <c r="C19" s="41">
+        <f>0.6*D19+0.25*E19+0.15*F19</f>
+        <v>7.95</v>
+      </c>
+      <c r="D19" s="45">
+        <v>7</v>
       </c>
       <c r="E19" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="F19" s="48">
-        <v>7.1</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>54</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F19" s="38">
+        <v>9.5</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="33" t="s">
-        <v>16</v>
+      <c r="K19" s="50"/>
+      <c r="L19" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="M19" s="20">
-        <f t="shared" si="2"/>
-        <v>7.6000000000000005</v>
+        <f>0.2*P19+0.8*Q19</f>
+        <v>8.4</v>
       </c>
       <c r="N19" s="20">
-        <f t="shared" si="3"/>
-        <v>8.3000000000000007</v>
+        <f>0.5*Q19+0.3*P19+0.2*O19</f>
+        <v>9</v>
       </c>
       <c r="O19" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P19" s="21">
         <v>10</v>
       </c>
       <c r="Q19" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B20" s="27">
-        <f t="shared" si="0"/>
-        <v>4.53</v>
-      </c>
-      <c r="C20" s="52">
-        <f t="shared" si="1"/>
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D20" s="4">
-        <v>5.9</v>
+        <f>0.7*D20+0.1*E20+0.2*F20</f>
+        <v>4.9799999999999995</v>
+      </c>
+      <c r="C20" s="42">
+        <f>0.6*D20+0.25*E20+0.15*F20</f>
+        <v>4.8349999999999991</v>
+      </c>
+      <c r="D20" s="46">
+        <v>5.0999999999999996</v>
       </c>
       <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="49">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="34" t="s">
-        <v>10</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F20" s="39">
+        <v>5</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="2"/>
-        <v>7.6000000000000005</v>
+        <f>0.2*P20+0.8*Q20</f>
+        <v>6.2000000000000011</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="3"/>
-        <v>8.3000000000000007</v>
+        <f>0.5*Q20+0.3*P20+0.2*O20</f>
+        <v>6.2</v>
       </c>
       <c r="O20" s="15">
         <v>9</v>
       </c>
       <c r="P20" s="15">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="16">
         <v>7</v>
@@ -2047,11 +2058,11 @@
         <v>43</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P21+0.8*Q21</f>
         <v>6</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q21+0.3*P21+0.2*O21</f>
         <v>6.1</v>
       </c>
       <c r="O21" s="15">
@@ -2069,11 +2080,11 @@
         <v>20</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P22+0.8*Q22</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q22+0.3*P22+0.2*O22</f>
         <v>5.3</v>
       </c>
       <c r="O22" s="15">
@@ -2091,11 +2102,11 @@
         <v>36</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P23+0.8*Q23</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q23+0.3*P23+0.2*O23</f>
         <v>4.5</v>
       </c>
       <c r="O23" s="15">
@@ -2113,11 +2124,11 @@
         <v>45</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P24+0.8*Q24</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q24+0.3*P24+0.2*O24</f>
         <v>4.3</v>
       </c>
       <c r="O24" s="15">
@@ -2135,11 +2146,11 @@
         <v>41</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P25+0.8*Q25</f>
         <v>5.4</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q25+0.3*P25+0.2*O25</f>
         <v>5.3999999999999995</v>
       </c>
       <c r="O25" s="15">
@@ -2157,11 +2168,11 @@
         <v>42</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P26+0.8*Q26</f>
         <v>5.2</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q26+0.3*P26+0.2*O26</f>
         <v>6.2</v>
       </c>
       <c r="O26" s="15">
@@ -2179,11 +2190,11 @@
         <v>44</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P27+0.8*Q27</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q27+0.3*P27+0.2*O27</f>
         <v>5.7</v>
       </c>
       <c r="O27" s="15">
@@ -2201,11 +2212,11 @@
         <v>27</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P28+0.8*Q28</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q28+0.3*P28+0.2*O28</f>
         <v>5.5</v>
       </c>
       <c r="O28" s="15">
@@ -2223,11 +2234,11 @@
         <v>7</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="2"/>
+        <f>0.2*P29+0.8*Q29</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="N29" s="12">
-        <f t="shared" si="3"/>
+        <f>0.5*Q29+0.3*P29+0.2*O29</f>
         <v>5.3</v>
       </c>
       <c r="O29" s="17">
@@ -2245,11 +2256,11 @@
         <v>17</v>
       </c>
       <c r="M30" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P30+0.8*Q30</f>
         <v>4</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q30+0.3*P30+0.2*O30</f>
         <v>3.3</v>
       </c>
       <c r="O30" s="15">
@@ -2267,11 +2278,11 @@
         <v>8</v>
       </c>
       <c r="M31" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P31+0.8*Q31</f>
         <v>4</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q31+0.3*P31+0.2*O31</f>
         <v>2.9</v>
       </c>
       <c r="O31" s="15">
@@ -2289,11 +2300,11 @@
         <v>15</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P32+0.8*Q32</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q32+0.3*P32+0.2*O32</f>
         <v>4.3</v>
       </c>
       <c r="O32" s="15">
@@ -2311,11 +2322,11 @@
         <v>26</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P33+0.8*Q33</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q33+0.3*P33+0.2*O33</f>
         <v>4.3</v>
       </c>
       <c r="O33" s="15">
@@ -2333,11 +2344,11 @@
         <v>13</v>
       </c>
       <c r="M34" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P34+0.8*Q34</f>
         <v>3.8000000000000003</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q34+0.3*P34+0.2*O34</f>
         <v>3.9</v>
       </c>
       <c r="O34" s="15">
@@ -2355,11 +2366,11 @@
         <v>12</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P35+0.8*Q35</f>
         <v>3.2</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q35+0.3*P35+0.2*O35</f>
         <v>3.6</v>
       </c>
       <c r="O35" s="15">
@@ -2377,11 +2388,11 @@
         <v>9</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P36+0.8*Q36</f>
         <v>3.2</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q36+0.3*P36+0.2*O36</f>
         <v>3.2</v>
       </c>
       <c r="O36" s="15">
@@ -2399,11 +2410,11 @@
         <v>23</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P37+0.8*Q37</f>
         <v>3.2</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q37+0.3*P37+0.2*O37</f>
         <v>3.2</v>
       </c>
       <c r="O37" s="15">
@@ -2421,11 +2432,11 @@
         <v>24</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P38+0.8*Q38</f>
         <v>3.2</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q38+0.3*P38+0.2*O38</f>
         <v>3.2</v>
       </c>
       <c r="O38" s="15">
@@ -2443,11 +2454,11 @@
         <v>47</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P39+0.8*Q39</f>
         <v>3.2</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q39+0.3*P39+0.2*O39</f>
         <v>3</v>
       </c>
       <c r="O39" s="15">
@@ -2465,11 +2476,11 @@
         <v>14</v>
       </c>
       <c r="M40" s="14">
-        <f t="shared" si="2"/>
+        <f>0.2*P40+0.8*Q40</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="N40" s="14">
-        <f t="shared" si="3"/>
+        <f>0.5*Q40+0.3*P40+0.2*O40</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="O40" s="15">
@@ -2487,11 +2498,11 @@
         <v>31</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="2"/>
+        <f>0.2*P41+0.8*Q41</f>
         <v>1.6</v>
       </c>
       <c r="N41" s="12">
-        <f t="shared" si="3"/>
+        <f>0.5*Q41+0.3*P41+0.2*O41</f>
         <v>1.8</v>
       </c>
       <c r="O41" s="17">
@@ -2516,8 +2527,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q42">
-    <sortCondition descending="1" ref="C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q43">
+    <sortCondition ref="G1"/>
   </sortState>
   <conditionalFormatting sqref="G2:G20">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="n">

--- a/cw.xlsx
+++ b/cw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597165A1-B7D9-409E-A83F-CF5526146F23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7877021-5455-48BA-AB9C-1594C840530C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,19 +1071,19 @@
       </c>
       <c r="H2" s="47">
         <f>SUMIF(G:G, "b", B:B)</f>
-        <v>22.71</v>
+        <v>22.99</v>
       </c>
       <c r="I2" s="48">
         <f>SUMIF(G:G, "b", D:D)/3</f>
-        <v>7.5666666666666673</v>
+        <v>7.7333333333333343</v>
       </c>
       <c r="J2" s="48">
         <f>SUMIF(G:G, "b", E:E)/3</f>
-        <v>7.2666666666666666</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="K2" s="49">
         <f>SUMIF(G:G, "b", F:F)/3</f>
-        <v>7.7333333333333334</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>48</v>
@@ -1108,24 +1108,24 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26">
         <f>0.7*D3+0.1*E3+0.2*F3</f>
-        <v>6.41</v>
+        <v>6.6899999999999995</v>
       </c>
       <c r="C3" s="41">
         <f>0.6*D3+0.25*E3+0.15*F3</f>
-        <v>6.3299999999999992</v>
+        <v>6.49</v>
       </c>
       <c r="D3" s="45">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="E3" s="3">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="F3" s="38">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>74</v>
@@ -1135,7 +1135,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="50"/>
       <c r="L3" s="30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="14">
         <f>0.2*P3+0.8*Q3</f>
@@ -1143,10 +1143,10 @@
       </c>
       <c r="N3" s="14">
         <f>0.5*Q3+0.3*P3+0.2*O3</f>
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O3" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" s="15">
         <v>10</v>
@@ -1230,19 +1230,19 @@
       </c>
       <c r="H5" s="52">
         <f>SUMIF(G:G, "g", B:B)</f>
-        <v>22.84</v>
+        <v>22.82</v>
       </c>
       <c r="I5" s="53">
         <f>SUMIF(G:G, "g", D:D)/3</f>
-        <v>7.8</v>
+        <v>7.7666666666666666</v>
       </c>
       <c r="J5" s="53">
         <f>SUMIF(G:G, "g", E:E)/3</f>
-        <v>6.9333333333333336</v>
+        <v>6.7666666666666666</v>
       </c>
       <c r="K5" s="54">
         <f>SUMIF(G:G, "g", F:F)/3</f>
-        <v>7.3</v>
+        <v>7.4666666666666659</v>
       </c>
       <c r="L5" s="30" t="s">
         <v>22</v>
@@ -1316,24 +1316,24 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B7" s="27">
         <f>0.7*D7+0.1*E7+0.2*F7</f>
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="C7" s="42">
         <f>0.6*D7+0.25*E7+0.15*F7</f>
-        <v>6.4399999999999995</v>
+        <v>6.3299999999999992</v>
       </c>
       <c r="D7" s="46">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E7" s="4">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="39">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>77</v>
@@ -1343,7 +1343,7 @@
       <c r="J7" s="43"/>
       <c r="K7" s="51"/>
       <c r="L7" s="30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M7" s="14">
         <f>0.2*P7+0.8*Q7</f>
@@ -1351,10 +1351,10 @@
       </c>
       <c r="N7" s="14">
         <f>0.5*Q7+0.3*P7+0.2*O7</f>
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="O7" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P7" s="15">
         <v>10</v>
@@ -1744,19 +1744,19 @@
       </c>
       <c r="H15" s="58">
         <f>SUMIF(G:G, "r", B:B)</f>
-        <v>23.189999999999998</v>
+        <v>22.93</v>
       </c>
       <c r="I15" s="59">
         <f>SUMIF(G:G, "r", D:D)/3</f>
-        <v>7.8666666666666671</v>
+        <v>7.7333333333333343</v>
       </c>
       <c r="J15" s="59">
         <f>SUMIF(G:G, "r", E:E)/3</f>
-        <v>6.833333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="K15" s="60">
         <f>SUMIF(G:G, "r", F:F)/3</f>
-        <v>7.7</v>
+        <v>7.5666666666666664</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>38</v>
@@ -1830,24 +1830,24 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" s="27">
         <f>0.7*D17+0.1*E17+0.2*F17</f>
-        <v>6.6899999999999995</v>
+        <v>6.43</v>
       </c>
       <c r="C17" s="42">
         <f>0.6*D17+0.25*E17+0.15*F17</f>
-        <v>6.49</v>
+        <v>6.4399999999999995</v>
       </c>
       <c r="D17" s="46">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="E17" s="4">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="F17" s="39">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>75</v>
@@ -1857,7 +1857,7 @@
       <c r="J17" s="43"/>
       <c r="K17" s="51"/>
       <c r="L17" s="30" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M17" s="14">
         <f>0.2*P17+0.8*Q17</f>
@@ -1865,10 +1865,10 @@
       </c>
       <c r="N17" s="14">
         <f>0.5*Q17+0.3*P17+0.2*O17</f>
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="O17" s="15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P17" s="15">
         <v>10</v>
@@ -2527,7 +2527,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q42">
     <sortCondition ref="G1"/>
   </sortState>
   <conditionalFormatting sqref="G2:G20">

--- a/cw.xlsx
+++ b/cw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndy15\Documents\Personal\CWTeams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7877021-5455-48BA-AB9C-1594C840530C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471A5A8A-B4A3-4344-84A4-818C95A183EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4D2EA23C-A82B-414D-844B-2B51042E71A8}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
